--- a/Current Building Characteristics.xlsx
+++ b/Current Building Characteristics.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\RenewEV-Heat-Loss-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9569FCB-515B-488B-A53D-45BFD171980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F498C0-7DBC-4676-BE30-F48C260164AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F7AB01C9-9591-4175-8402-68F676A903F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F7AB01C9-9591-4175-8402-68F676A903F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
     <sheet name="Elements" sheetId="2" r:id="rId2"/>
     <sheet name="Room Key" sheetId="1" r:id="rId3"/>
     <sheet name="Materials" sheetId="5" r:id="rId4"/>
-    <sheet name="Element Types" sheetId="3" r:id="rId5"/>
-    <sheet name="Effective Area" sheetId="7" r:id="rId6"/>
-    <sheet name="CO2 Conversion Factors" sheetId="6" r:id="rId7"/>
-    <sheet name="DHW" sheetId="8" r:id="rId8"/>
+    <sheet name="Effective Area" sheetId="7" r:id="rId5"/>
+    <sheet name="Dropdown" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="170">
   <si>
     <t>Element_Code</t>
   </si>
@@ -422,12 +420,6 @@
     <t>Roof/Wall Element</t>
   </si>
   <si>
-    <t>Scope 1 Emissions (kg CO2e/kWh)</t>
-  </si>
-  <si>
-    <t>UK Gov Jan 2022</t>
-  </si>
-  <si>
     <t>W4</t>
   </si>
   <si>
@@ -491,18 +483,6 @@
     <t>conductivity of soil under building (W/mK)</t>
   </si>
   <si>
-    <t>LPG</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>Fuel (Gross CV)</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
     <t>Mains Gas</t>
   </si>
   <si>
@@ -518,96 +498,15 @@
     <t>DHW source of heat</t>
   </si>
   <si>
-    <t>n_shower</t>
-  </si>
-  <si>
-    <t>n_wash</t>
-  </si>
-  <si>
-    <t>n_bath</t>
-  </si>
-  <si>
-    <t>n_sink</t>
-  </si>
-  <si>
     <t>2023-12-31  18:00:00</t>
   </si>
   <si>
     <t>2023-01-01  12:00:00</t>
   </si>
   <si>
-    <t>Number of showers in the house</t>
-  </si>
-  <si>
-    <t>Number of hand wash basins in the house</t>
-  </si>
-  <si>
-    <t>Number of baths</t>
-  </si>
-  <si>
-    <t>Number of kitchen sinks</t>
-  </si>
-  <si>
-    <t>hw_shower</t>
-  </si>
-  <si>
-    <t>Shower hot water load (L/unit)</t>
-  </si>
-  <si>
-    <t>hw_wash</t>
-  </si>
-  <si>
-    <t>Wash basin hot water load (L/unit)</t>
-  </si>
-  <si>
-    <t>hw_bath</t>
-  </si>
-  <si>
-    <t>Bath hot water load (L/unit)</t>
-  </si>
-  <si>
-    <t>hw_sink</t>
-  </si>
-  <si>
-    <t>Kitchen sink hot water load (L/unit)</t>
-  </si>
-  <si>
-    <t>t_reheat</t>
-  </si>
-  <si>
-    <t>reheat time (hours)</t>
-  </si>
-  <si>
-    <t>water_in</t>
-  </si>
-  <si>
-    <t>water inlet temperature (C)</t>
-  </si>
-  <si>
-    <t>water_out</t>
-  </si>
-  <si>
-    <t>water outlet temperature (C)</t>
-  </si>
-  <si>
-    <t>t_daily</t>
-  </si>
-  <si>
-    <t>daily heating time (hours)</t>
-  </si>
-  <si>
-    <t>t_active</t>
-  </si>
-  <si>
-    <t>active dhw days in the year (days/year)</t>
-  </si>
-  <si>
     <t>U-Value_Type</t>
   </si>
   <si>
-    <t>DG</t>
-  </si>
-  <si>
     <t>W1</t>
   </si>
   <si>
@@ -615,15 +514,48 @@
   </si>
   <si>
     <t>W3</t>
+  </si>
+  <si>
+    <t>fk</t>
+  </si>
+  <si>
+    <t>fRH</t>
+  </si>
+  <si>
+    <t>U-Value Type</t>
+  </si>
+  <si>
+    <t>Win - DG</t>
+  </si>
+  <si>
+    <t>Win - TG</t>
+  </si>
+  <si>
+    <t>Win - SinG</t>
+  </si>
+  <si>
+    <t>Win - SecG</t>
+  </si>
+  <si>
+    <t>D - Solid</t>
+  </si>
+  <si>
+    <t>D - DG</t>
+  </si>
+  <si>
+    <t>D - SinG</t>
+  </si>
+  <si>
+    <t>D- TG</t>
+  </si>
+  <si>
+    <t>D_Temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -683,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -709,13 +641,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -726,6 +654,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1043,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA64AD-AA06-4F69-BB92-B7A97995746A}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1246,8 +1175,8 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>163</v>
+      <c r="B18" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
@@ -1257,8 +1186,8 @@
       <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>162</v>
+      <c r="B19" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -1280,7 +1209,7 @@
         <v>107</v>
       </c>
       <c r="B21" s="2">
-        <f>SUM(Elements!P:P)</f>
+        <f>SUM(Elements!T:T)</f>
         <v>100</v>
       </c>
       <c r="C21" t="s">
@@ -1289,68 +1218,68 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" s="2">
         <v>1500</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B23" s="2">
         <v>1900</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24" s="2">
         <v>0.3</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="2">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1290,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1FF4F236-4E91-47E7-AD34-0B59BBD7B2D7}">
           <x14:formula1>
-            <xm:f>'CO2 Conversion Factors'!$A$2:$A$5</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B26 B27</xm:sqref>
         </x14:dataValidation>
@@ -1373,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716C0F2C-B08A-4EA2-B90D-300B6914284F}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1385,16 +1314,19 @@
     <col min="2" max="2" width="14.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="9.90625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="10.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="7.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.26953125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="7.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.26953125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="7.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="7.453125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1431,46 +1363,58 @@
       <c r="L1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>95</v>
@@ -1502,46 +1446,56 @@
       <c r="L2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="N2" s="12">
-        <v>2</v>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="O2" s="12">
         <v>2</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>2</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="12">
         <v>0</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="U2" s="12">
         <v>90</v>
       </c>
-      <c r="R2" s="12">
+      <c r="V2" s="12">
         <v>0</v>
       </c>
-      <c r="S2" s="12">
+      <c r="W2" s="12">
         <v>1</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>93</v>
@@ -1573,46 +1527,56 @@
       <c r="L3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="N3" s="12">
+      <c r="M3" s="12">
+        <v>1</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="12">
         <v>1.5</v>
       </c>
-      <c r="O3" s="12">
+      <c r="P3" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="12">
         <v>2</v>
       </c>
-      <c r="P3" s="12">
+      <c r="R3" s="12"/>
+      <c r="S3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="12">
         <v>0</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="U3" s="12">
         <v>90</v>
       </c>
-      <c r="R3" s="12">
+      <c r="V3" s="12">
         <v>-90</v>
       </c>
-      <c r="S3" s="12">
+      <c r="W3" s="12">
         <v>1</v>
       </c>
-      <c r="T3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>95</v>
@@ -1644,43 +1608,53 @@
       <c r="L4" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="N4" s="12">
-        <v>2</v>
+      <c r="M4" s="12">
+        <v>1</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="O4" s="12">
         <v>2</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>2</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="12">
         <v>0</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="U4" s="12">
         <v>90</v>
       </c>
-      <c r="R4" s="12">
+      <c r="V4" s="12">
         <v>90</v>
       </c>
-      <c r="S4" s="12">
+      <c r="W4" s="12">
         <v>1</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>76</v>
@@ -1689,7 +1663,7 @@
         <v>93</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>94</v>
@@ -1715,43 +1689,53 @@
       <c r="L5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>94</v>
+      <c r="M5" s="12">
+        <v>1.4</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="12">
         <v>5</v>
       </c>
-      <c r="P5" s="12">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="12">
         <v>0</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="U5" s="12">
         <v>90</v>
       </c>
-      <c r="R5" s="12">
+      <c r="V5" s="12">
         <v>180</v>
       </c>
-      <c r="S5" s="12">
+      <c r="W5" s="12">
         <v>1</v>
       </c>
-      <c r="T5" s="12">
+      <c r="X5" s="12">
         <v>1</v>
       </c>
-      <c r="U5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>76</v>
@@ -1760,7 +1744,7 @@
         <v>93</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>94</v>
@@ -1786,43 +1770,53 @@
       <c r="L6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>94</v>
+      <c r="M6" s="12">
+        <v>1.4</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="12">
         <v>5</v>
       </c>
-      <c r="P6" s="12">
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="12">
         <v>0</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="U6" s="12">
         <v>90</v>
       </c>
-      <c r="R6" s="12">
+      <c r="V6" s="12">
         <v>0</v>
       </c>
-      <c r="S6" s="12">
+      <c r="W6" s="12">
         <v>1</v>
       </c>
-      <c r="T6" s="12">
+      <c r="X6" s="12">
         <v>1</v>
       </c>
-      <c r="U6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>76</v>
@@ -1831,7 +1825,7 @@
         <v>93</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>94</v>
@@ -1857,43 +1851,53 @@
       <c r="L7" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>94</v>
+      <c r="M7" s="12">
+        <v>1.4</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="12">
         <v>5</v>
       </c>
-      <c r="P7" s="12">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" s="12">
         <v>0</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="U7" s="12">
         <v>90</v>
       </c>
-      <c r="R7" s="12">
+      <c r="V7" s="12">
         <v>90</v>
       </c>
-      <c r="S7" s="12">
+      <c r="W7" s="12">
         <v>1</v>
       </c>
-      <c r="T7" s="12">
+      <c r="X7" s="12">
         <v>1</v>
       </c>
-      <c r="U7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>76</v>
@@ -1902,7 +1906,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>94</v>
@@ -1928,43 +1932,53 @@
       <c r="L8" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>94</v>
+      <c r="M8" s="12">
+        <v>1.4</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="12">
         <v>5</v>
       </c>
-      <c r="P8" s="12">
+      <c r="R8" s="12"/>
+      <c r="S8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="12">
         <v>0</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="U8" s="12">
         <v>90</v>
       </c>
-      <c r="R8" s="12">
+      <c r="V8" s="12">
         <v>-90</v>
       </c>
-      <c r="S8" s="12">
+      <c r="W8" s="12">
         <v>1</v>
       </c>
-      <c r="T8" s="12">
+      <c r="X8" s="12">
         <v>1</v>
       </c>
-      <c r="U8" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>69</v>
@@ -1973,7 +1987,7 @@
         <v>93</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>94</v>
@@ -1999,44 +2013,54 @@
       <c r="L9" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>94</v>
+      <c r="M9" s="12">
+        <v>1.26</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O9" s="12">
-        <f>10-O4</f>
+      <c r="O9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>10-Q4</f>
         <v>8</v>
       </c>
-      <c r="P9" s="12">
+      <c r="R9" s="12"/>
+      <c r="S9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="T9" s="12">
         <v>0</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="U9" s="12">
         <v>0</v>
       </c>
-      <c r="R9" s="12">
+      <c r="V9" s="12">
         <v>0</v>
       </c>
-      <c r="S9" s="12">
+      <c r="W9" s="12">
         <v>1</v>
       </c>
-      <c r="T9" s="12">
+      <c r="X9" s="12">
         <v>1</v>
       </c>
-      <c r="U9" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>64</v>
@@ -2045,7 +2069,7 @@
         <v>93</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>94</v>
@@ -2071,37 +2095,47 @@
       <c r="L10" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10" s="12">
+      <c r="M10" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="N10" s="12">
+        <v>16</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="12">
         <v>10</v>
       </c>
-      <c r="P10" s="12">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>0</v>
-      </c>
-      <c r="R10" s="12">
-        <v>0</v>
-      </c>
+      <c r="R10" s="12"/>
       <c r="S10" s="12">
         <v>1</v>
       </c>
       <c r="T10" s="12">
+        <v>100</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
         <v>1</v>
       </c>
-      <c r="U10" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="W10" s="12" t="s">
+      <c r="X10" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA10" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2109,10 +2143,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31461861-8C27-4353-B916-83BBEF5811A5}">
           <x14:formula1>
-            <xm:f>'Element Types'!$A$2:$A$56</xm:f>
+            <xm:f>Dropdown!$A$2:$A$56</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -2121,6 +2155,12 @@
             <xm:f>Materials!$A$2:$A$199</xm:f>
           </x14:formula1>
           <xm:sqref>E11:G1048576 E2:G2 C2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C18755C6-06E8-45AD-998D-5C7C44226C69}">
+          <x14:formula1>
+            <xm:f>Dropdown!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2:P10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2265,7 +2305,7 @@
         <v>86</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>88</v>
@@ -2419,7 +2459,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" s="8">
         <v>130</v>
@@ -2480,10 +2520,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2495,150 +2535,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13609CCC-BA72-4DF1-844A-507F100E80C1}">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE241666-7B8D-42CD-BC2E-BC0638B93994}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2659,23 +2560,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2716,7 +2617,7 @@
       <c r="L2" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="19"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -2747,237 +2648,167 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3EBB5D-1F3A-4DF3-88B7-5CADE8AC50FD}">
-  <dimension ref="A1:D5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13609CCC-BA72-4DF1-844A-507F100E80C1}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0.21448999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0.24676999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.21232999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0.18315999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FF48CA-BE4C-4B22-9DA4-256F641563D7}">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="2">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="2">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="2">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="2">
-        <v>365</v>
-      </c>
-      <c r="C14" t="s">
-        <v>185</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2986,12 +2817,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E6C8E2BBE97A449BF587258ABB90B5C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e50336969d1f6026fdc030928552f636">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9da34839-94b1-4adb-9ce9-2bf1180dd981" xmlns:ns3="e21e7998-6f05-4771-9945-6b2b40d9b8dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="609895644b08c4e71b20ec11bc598037" ns2:_="" ns3:_="">
     <xsd:import namespace="9da34839-94b1-4adb-9ce9-2bf1180dd981"/>
@@ -3214,6 +3039,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3224,15 +3055,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AA0889-6486-4C22-A950-9F61B4B8A696}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA27988-4BDC-4DBB-93DD-2B86C53BCFE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3251,6 +3073,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AA0889-6486-4C22-A950-9F61B4B8A696}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFAA5CEA-80BB-497C-B05C-1589868B6D5D}">
   <ds:schemaRefs>

--- a/Current Building Characteristics.xlsx
+++ b/Current Building Characteristics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renewev.sharepoint.com/sites/RenewEV/Shared Documents/General/Client Folder/Matthew Clay Architects/Huffs Barton/Heat Loss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1845" documentId="8_{109A9AF1-57E9-40DB-B7CC-86613E88E48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A77CD53-C105-4601-A3B3-328354383186}"/>
+  <xr:revisionPtr revIDLastSave="1889" documentId="8_{109A9AF1-57E9-40DB-B7CC-86613E88E48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6738DA80-0A5D-441D-A13D-554D9A242CED}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F7AB01C9-9591-4175-8402-68F676A903F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{F7AB01C9-9591-4175-8402-68F676A903F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="267">
   <si>
     <t>Variable Name</t>
   </si>
@@ -229,6 +229,9 @@
     <t>fk</t>
   </si>
   <si>
+    <t>fRH</t>
+  </si>
+  <si>
     <t>U-Value</t>
   </si>
   <si>
@@ -839,6 +842,9 @@
   </si>
   <si>
     <t>EW1-09</t>
+  </si>
+  <si>
+    <t>Floor Area (m2)</t>
   </si>
 </sst>
 </file>
@@ -1266,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA64AD-AA06-4F69-BB92-B7A97995746A}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1503,7 +1509,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="2">
-        <f>SUM('Room Key'!D:D)</f>
+        <f>SUM('Room Key'!F:F)</f>
         <v>461.53424289999998</v>
       </c>
       <c r="C21" t="s">
@@ -1512,7 +1518,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2">
         <v>1500</v>
@@ -1523,7 +1529,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23" s="2">
         <v>1900</v>
@@ -1534,7 +1540,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2">
         <v>0.3</v>
@@ -1545,7 +1551,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2">
         <v>10</v>
@@ -1562,14 +1568,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716C0F2C-B08A-4EA2-B90D-300B6914284F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47:A76"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1597,7 +1602,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>49</v>
@@ -1636,75 +1641,75 @@
         <v>60</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N2" s="13">
         <v>0.42</v>
@@ -1713,7 +1718,7 @@
         <v>0.18</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q2" s="13">
         <v>16.8</v>
@@ -1740,45 +1745,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" s="13">
         <v>0.42</v>
@@ -1787,7 +1792,7 @@
         <v>0.18</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q3" s="13">
         <v>12.1</v>
@@ -1814,45 +1819,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="13">
         <v>0.42</v>
@@ -1861,7 +1866,7 @@
         <v>0.18</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="13">
         <v>10.199999999999999</v>
@@ -1888,45 +1893,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N5" s="13">
         <v>0.42</v>
@@ -1935,7 +1940,7 @@
         <v>0.18</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="13">
         <v>5.8</v>
@@ -1962,45 +1967,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N6" s="13">
         <v>0.42</v>
@@ -2009,7 +2014,7 @@
         <v>0.18</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="13">
         <v>9.8000000000000007</v>
@@ -2036,45 +2041,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N7" s="13">
         <v>0.42</v>
@@ -2083,7 +2088,7 @@
         <v>0.18</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="13">
         <v>14.8</v>
@@ -2110,45 +2115,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" s="13">
         <v>0.42</v>
@@ -2157,7 +2162,7 @@
         <v>0.18</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="13">
         <v>2.2000000000000002</v>
@@ -2184,45 +2189,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N9" s="13">
         <v>0.42</v>
@@ -2231,7 +2236,7 @@
         <v>0.18</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="13">
         <v>18.7</v>
@@ -2258,45 +2263,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N10" s="13">
         <v>0.42</v>
@@ -2305,7 +2310,7 @@
         <v>0.18</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="13">
         <v>7</v>
@@ -2332,30 +2337,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11" s="13">
         <v>0.01</v>
@@ -2367,19 +2372,19 @@
         <v>0.1</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N11" s="13">
         <v>1</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="13">
         <f>'Effective Area'!M3</f>
@@ -2405,30 +2410,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I12" s="13">
         <v>0.01</v>
@@ -2440,19 +2445,19 @@
         <v>0.1</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N12" s="13">
         <v>1</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="13">
         <f>'Effective Area'!M4</f>
@@ -2478,30 +2483,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I13" s="13">
         <v>0.01</v>
@@ -2513,19 +2518,19 @@
         <v>0.1</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N13" s="13">
         <v>1</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="13">
         <f>'Effective Area'!M5</f>
@@ -2551,30 +2556,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" s="13">
         <v>0.01</v>
@@ -2586,19 +2591,19 @@
         <v>0.1</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N14" s="13">
         <v>1</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="13">
         <f>'Effective Area'!M6</f>
@@ -2624,30 +2629,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I15" s="13">
         <v>0.01</v>
@@ -2659,19 +2664,19 @@
         <v>0.1</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N15" s="13">
         <v>1</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q15" s="13">
         <f>'Effective Area'!M7</f>
@@ -2697,30 +2702,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I16" s="13">
         <v>0.01</v>
@@ -2732,19 +2737,19 @@
         <v>0.1</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N16" s="13">
         <v>1</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="13">
         <f>'Effective Area'!M8</f>
@@ -2770,54 +2775,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I17" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N17" s="13">
         <v>1</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="13">
         <f>'Effective Area'!M9</f>
@@ -2843,54 +2848,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I18" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N18" s="13">
         <v>1</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="13">
         <f>'Effective Area'!M10</f>
@@ -2916,54 +2921,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N19" s="13">
         <v>1</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="13">
         <f>'Effective Area'!M11</f>
@@ -2989,54 +2994,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N20" s="13">
         <v>1</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="13">
         <f>'Effective Area'!M12</f>
@@ -3062,54 +3067,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I21" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N21" s="13">
         <v>1</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="13">
         <f>'Effective Area'!M13</f>
@@ -3135,54 +3140,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I22" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N22" s="13">
         <v>1</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="13">
         <f>'Effective Area'!M14</f>
@@ -3208,30 +3213,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I23" s="13">
         <v>0.01</v>
@@ -3243,19 +3248,19 @@
         <v>0.1</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N23" s="13">
         <v>1</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="13">
         <f>'Effective Area'!M15</f>
@@ -3281,45 +3286,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N24" s="13">
         <v>1</v>
@@ -3328,7 +3333,7 @@
         <v>1.4</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q24" s="13">
         <v>9.2799999999999994</v>
@@ -3353,45 +3358,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N25" s="13">
         <v>1</v>
@@ -3400,7 +3405,7 @@
         <v>1.4</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="13">
         <v>9.34</v>
@@ -3425,45 +3430,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N26" s="13">
         <v>1</v>
@@ -3472,7 +3477,7 @@
         <v>1.4</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q26" s="13">
         <v>2.09</v>
@@ -3497,45 +3502,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N27" s="13">
         <v>1</v>
@@ -3544,7 +3549,7 @@
         <v>1.4</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q27" s="13">
         <v>1.1200000000000001</v>
@@ -3569,45 +3574,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N28" s="13">
         <v>1</v>
@@ -3616,7 +3621,7 @@
         <v>1.4</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="13">
         <v>1.7</v>
@@ -3641,45 +3646,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N29" s="13">
         <v>1</v>
@@ -3688,7 +3693,7 @@
         <v>1.4</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="13">
         <v>2.08</v>
@@ -3713,45 +3718,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N30" s="13">
         <v>1</v>
@@ -3760,7 +3765,7 @@
         <v>1.4</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="13">
         <v>2.19</v>
@@ -3785,45 +3790,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N31" s="13">
         <v>1</v>
@@ -3832,7 +3837,7 @@
         <v>1.4</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="13">
         <v>3.15</v>
@@ -3857,45 +3862,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N32" s="13">
         <v>1</v>
@@ -3904,7 +3909,7 @@
         <v>1.4</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="13">
         <v>1.95</v>
@@ -3929,45 +3934,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N33" s="13">
         <v>1</v>
@@ -3976,7 +3981,7 @@
         <v>1.4</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q33" s="13">
         <v>1.87</v>
@@ -4001,45 +4006,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N34" s="13">
         <v>1</v>
@@ -4048,7 +4053,7 @@
         <v>1.4</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q34" s="13">
         <v>2.21</v>
@@ -4073,45 +4078,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N35" s="13">
         <v>1</v>
@@ -4120,7 +4125,7 @@
         <v>1.4</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q35" s="13">
         <v>2.0699999999999998</v>
@@ -4145,45 +4150,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N36" s="13">
         <v>1</v>
@@ -4192,7 +4197,7 @@
         <v>1.4</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="13">
         <v>2.13</v>
@@ -4217,45 +4222,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N37" s="13">
         <v>1</v>
@@ -4264,7 +4269,7 @@
         <v>1.4</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q37" s="13">
         <v>2.2400000000000002</v>
@@ -4289,45 +4294,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N38" s="13">
         <v>1</v>
@@ -4336,7 +4341,7 @@
         <v>1.4</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q38" s="13">
         <v>1.53</v>
@@ -4361,45 +4366,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N39" s="13">
         <v>1</v>
@@ -4408,7 +4413,7 @@
         <v>1.4</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39" s="13">
         <v>1.8</v>
@@ -4433,45 +4438,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N40" s="13">
         <v>1</v>
@@ -4480,7 +4485,7 @@
         <v>1.4</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q40" s="13">
         <v>1.8</v>
@@ -4505,45 +4510,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N41" s="13">
         <v>1</v>
@@ -4552,7 +4557,7 @@
         <v>1.4</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q41" s="13">
         <v>1.8</v>
@@ -4577,45 +4582,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N42" s="13">
         <v>1</v>
@@ -4624,7 +4629,7 @@
         <v>1.4</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q42" s="13">
         <f>1.2*0.8</f>
@@ -4650,45 +4655,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N43" s="13">
         <v>1</v>
@@ -4697,7 +4702,7 @@
         <v>1.4</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q43" s="13">
         <f>1.2*0.8</f>
@@ -4723,45 +4728,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N44" s="13">
         <v>1</v>
@@ -4770,7 +4775,7 @@
         <v>1.4</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44" s="13">
         <v>2.2000000000000002</v>
@@ -4795,45 +4800,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N45" s="13">
         <v>1</v>
@@ -4842,7 +4847,7 @@
         <v>1.4</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q45" s="13">
         <v>1</v>
@@ -4867,45 +4872,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N46" s="13">
         <v>1</v>
@@ -4914,7 +4919,7 @@
         <v>1.4</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q46" s="13">
         <f>1.2*0.8</f>
@@ -4940,45 +4945,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N47" s="13">
         <v>1</v>
@@ -4987,7 +4992,7 @@
         <v>1.4</v>
       </c>
       <c r="P47" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q47" s="13">
         <f>1.2*0.8</f>
@@ -5013,45 +5018,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N48" s="13">
         <v>1</v>
@@ -5060,7 +5065,7 @@
         <v>1.4</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q48" s="13">
         <f>1.2*0.8</f>
@@ -5086,45 +5091,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N49" s="13">
         <v>1</v>
@@ -5133,7 +5138,7 @@
         <v>1.4</v>
       </c>
       <c r="P49" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q49" s="13">
         <f>1.2*0.8</f>
@@ -5159,45 +5164,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N50" s="13">
         <v>1</v>
@@ -5206,7 +5211,7 @@
         <v>1.4</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q50" s="13">
         <f>1.2*0.8</f>
@@ -5232,45 +5237,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N51" s="13">
         <v>1</v>
@@ -5279,7 +5284,7 @@
         <v>1.8</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q51" s="13">
         <f>0.5*(4*PI()*(0.15)^2)</f>
@@ -5305,30 +5310,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I52" s="13">
         <v>0.01</v>
@@ -5340,19 +5345,19 @@
         <v>0.1</v>
       </c>
       <c r="L52" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N52" s="13">
         <v>1</v>
       </c>
       <c r="O52" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q52" s="13">
         <f>'Effective Area'!M16</f>
@@ -5378,30 +5383,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I53" s="13">
         <v>0.01</v>
@@ -5413,19 +5418,19 @@
         <v>0.1</v>
       </c>
       <c r="L53" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N53" s="13">
         <v>1</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q53" s="13">
         <f>'Effective Area'!M17</f>
@@ -5451,30 +5456,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I54" s="13">
         <v>0.1</v>
@@ -5486,19 +5491,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N54" s="13">
         <v>1</v>
       </c>
       <c r="O54" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q54" s="13">
         <f>'Effective Area'!M18</f>
@@ -5524,30 +5529,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>243</v>
-      </c>
       <c r="G55" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I55" s="13">
         <v>0.1</v>
@@ -5559,19 +5564,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N55" s="13">
         <v>1</v>
       </c>
       <c r="O55" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P55" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q55" s="13">
         <f>'Effective Area'!M19</f>
@@ -5597,30 +5602,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I56" s="13">
         <v>0.01</v>
@@ -5632,19 +5637,19 @@
         <v>0.1</v>
       </c>
       <c r="L56" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N56" s="13">
         <v>1</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P56" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q56" s="13">
         <f>'Effective Area'!M20</f>
@@ -5670,30 +5675,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I57" s="13">
         <v>0.1</v>
@@ -5705,19 +5710,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L57" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N57" s="13">
         <v>1</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P57" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q57" s="13">
         <f>'Effective Area'!M21</f>
@@ -5743,30 +5748,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I58" s="13">
         <v>0.1</v>
@@ -5778,19 +5783,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L58" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N58" s="13">
         <v>1</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P58" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q58" s="13">
         <f>'Effective Area'!M22</f>
@@ -5816,30 +5821,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I59" s="13">
         <v>0.1</v>
@@ -5851,19 +5856,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L59" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N59" s="13">
         <v>1</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P59" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q59" s="13">
         <f>'Effective Area'!M23</f>
@@ -5891,28 +5896,28 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I60" s="13">
         <v>0.1</v>
@@ -5924,19 +5929,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N60" s="13">
         <v>1</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P60" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q60" s="13">
         <f>'Effective Area'!M24</f>
@@ -5962,30 +5967,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I61" s="13">
         <v>0.1</v>
@@ -5997,19 +6002,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N61" s="13">
         <v>1</v>
       </c>
       <c r="O61" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P61" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q61" s="13">
         <f>'Effective Area'!M25</f>
@@ -6035,30 +6040,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I62" s="13">
         <v>0.1</v>
@@ -6070,19 +6075,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L62" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N62" s="13">
         <v>1</v>
       </c>
       <c r="O62" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P62" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q62" s="13">
         <f>'Effective Area'!M26</f>
@@ -6108,30 +6113,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I63" s="13">
         <v>0.01</v>
@@ -6143,19 +6148,19 @@
         <v>0.1</v>
       </c>
       <c r="L63" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N63" s="13">
         <v>1</v>
       </c>
       <c r="O63" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P63" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q63" s="13">
         <f>'Effective Area'!M27</f>
@@ -6181,30 +6186,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I64" s="13">
         <v>0.1</v>
@@ -6216,19 +6221,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N64" s="13">
         <v>1</v>
       </c>
       <c r="O64" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q64" s="13">
         <f>'Effective Area'!M28</f>
@@ -6254,30 +6259,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I65" s="13">
         <v>0.1</v>
@@ -6289,19 +6294,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L65" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N65" s="13">
         <v>1</v>
       </c>
       <c r="O65" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q65" s="13">
         <f>'Effective Area'!M29</f>
@@ -6327,54 +6332,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I66" s="13">
         <v>0.4</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N66" s="13">
         <v>0.9</v>
       </c>
       <c r="O66" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q66" s="13">
         <v>2.73</v>
@@ -6399,54 +6404,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I67" s="13">
         <v>0.4</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N67" s="13">
         <v>0.9</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P67" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q67" s="13">
         <f>13.7</f>
@@ -6472,54 +6477,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I68" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L68" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N68" s="13">
         <v>1</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P68" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q68" s="13">
         <f>'Effective Area'!M30</f>
@@ -6545,54 +6550,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I69" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L69" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N69" s="13">
         <v>1</v>
       </c>
       <c r="O69" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q69" s="13">
         <f>'Effective Area'!M31</f>
@@ -6618,54 +6623,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I70" s="13">
         <v>0.4</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N70" s="13">
         <v>0.9</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P70" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q70" s="13">
         <v>8.9</v>
@@ -6690,54 +6695,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I71" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L71" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N71" s="13">
         <v>1</v>
       </c>
       <c r="O71" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P71" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q71" s="13">
         <f>'Effective Area'!M32</f>
@@ -6763,54 +6768,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I72" s="13">
         <v>0.4</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N72" s="13">
         <v>0.9</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P72" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q72" s="13">
         <f>15.3</f>
@@ -6836,54 +6841,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I73" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L73" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N73" s="13">
         <v>1</v>
       </c>
       <c r="O73" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P73" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q73" s="13">
         <f>'Effective Area'!M33</f>
@@ -6909,54 +6914,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I74" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N74" s="13">
         <v>1</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q74" s="13">
         <f>'Effective Area'!M34</f>
@@ -6982,54 +6987,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I75" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L75" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N75" s="13">
         <v>1</v>
       </c>
       <c r="O75" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P75" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q75" s="13">
         <f>3.05*2.37</f>
@@ -7056,13 +7061,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B75" xr:uid="{716C0F2C-B08A-4EA2-B90D-300B6914284F}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="G1.9 CBD"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B75" xr:uid="{716C0F2C-B08A-4EA2-B90D-300B6914284F}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7106,80 +7105,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B87111-374D-4BF2-ACC8-08FD80411F41}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18" style="7" customWidth="1"/>
-    <col min="7" max="15" width="9.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="18" style="7" customWidth="1"/>
+    <col min="9" max="17" width="9.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T1" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="12">
         <v>16</v>
@@ -7188,27 +7193,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="12">
-        <f>Elements!Q4*E2</f>
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F2" s="12">
+        <f>Elements!Q4*G2</f>
         <v>24.887999999999998</v>
       </c>
-      <c r="E2" s="12">
+      <c r="G2" s="12">
         <f>2.29+0.15</f>
         <v>2.44</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>154</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
@@ -7216,10 +7225,12 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B3" s="12">
         <v>18</v>
@@ -7228,39 +7239,45 @@
         <v>1</v>
       </c>
       <c r="D3" s="12">
-        <f>Elements!Q9*E3</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="12">
+        <v>18.7</v>
+      </c>
+      <c r="F3" s="12">
+        <f>Elements!Q9*G3</f>
         <v>42.823</v>
       </c>
-      <c r="E3" s="12">
+      <c r="G3" s="12">
         <v>2.29</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="H3" s="12" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="I3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>171</v>
+      </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B4" s="12">
         <v>16</v>
@@ -7269,20 +7286,24 @@
         <v>1</v>
       </c>
       <c r="D4" s="12">
-        <f>Elements!Q5*E4</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="12">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12">
+        <f>Elements!Q5*G4</f>
         <v>13.282</v>
       </c>
-      <c r="E4" s="12">
+      <c r="G4" s="12">
         <v>2.29</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -7292,10 +7313,12 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B5" s="12">
         <v>18</v>
@@ -7304,26 +7327,30 @@
         <v>1.5</v>
       </c>
       <c r="D5" s="12">
-        <f>Elements!Q8*E5</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5" s="12">
+        <f>Elements!Q8*G5</f>
         <v>5.0380000000000003</v>
       </c>
-      <c r="E5" s="12">
+      <c r="G5" s="12">
         <v>2.29</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="H5" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -7331,10 +7358,12 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B6" s="12">
         <v>18</v>
@@ -7343,41 +7372,47 @@
         <v>1</v>
       </c>
       <c r="D6" s="12">
-        <f>Elements!Q7*E6</f>
+        <v>4</v>
+      </c>
+      <c r="E6" s="12">
+        <v>14.8</v>
+      </c>
+      <c r="F6" s="12">
+        <f>Elements!Q7*G6</f>
         <v>33.892000000000003</v>
       </c>
-      <c r="E6" s="12">
+      <c r="G6" s="12">
         <v>2.29</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="I6" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="K6" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>202</v>
+      </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B7" s="12">
         <v>18</v>
@@ -7386,40 +7421,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="12">
-        <f>Elements!Q2*'Room Key'!E3</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>16.8</v>
+      </c>
+      <c r="F7" s="12">
+        <f>Elements!Q2*'Room Key'!G3</f>
         <v>38.472000000000001</v>
       </c>
-      <c r="E7" s="19">
+      <c r="G7" s="19">
         <f>2.49+0.35</f>
         <v>2.8400000000000003</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>152</v>
-      </c>
       <c r="H7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B8" s="12">
         <v>18</v>
@@ -7428,42 +7469,48 @@
         <v>1.5</v>
       </c>
       <c r="D8" s="12">
-        <f>Elements!Q3*'Room Key'!E2</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="12">
+        <v>12.1</v>
+      </c>
+      <c r="F8" s="12">
+        <f>Elements!Q3*'Room Key'!G2</f>
         <v>29.523999999999997</v>
       </c>
-      <c r="E8" s="19">
+      <c r="G8" s="19">
         <f>2.49+0.35</f>
         <v>2.8400000000000003</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>153</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="I8" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="K8" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>206</v>
+      </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B9" s="12">
         <v>18</v>
@@ -7472,27 +7519,31 @@
         <v>2</v>
       </c>
       <c r="D9" s="12">
-        <f>Elements!Q5*'Room Key'!E4</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>5.8</v>
+      </c>
+      <c r="F9" s="12">
+        <f>Elements!Q5*'Room Key'!G4</f>
         <v>13.282</v>
       </c>
-      <c r="E9" s="12">
+      <c r="G9" s="12">
         <f>2.29+0.15</f>
         <v>2.44</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>155</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>207</v>
+      </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -7500,10 +7551,12 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B10" s="12">
         <v>18</v>
@@ -7512,46 +7565,52 @@
         <v>1.5</v>
       </c>
       <c r="D10" s="12">
-        <f>Elements!Q6*E10</f>
+        <v>4</v>
+      </c>
+      <c r="E10" s="12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F10" s="12">
+        <f>Elements!Q6*G10</f>
         <v>23.912000000000003</v>
       </c>
-      <c r="E10" s="12">
+      <c r="G10" s="12">
         <f>2.29+0.15</f>
         <v>2.44</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>156</v>
-      </c>
       <c r="H10" s="12" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="I10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="M10" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>203</v>
+      </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B11" s="12">
         <v>16</v>
@@ -7559,40 +7618,46 @@
       <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F11" s="19">
         <f>((2.37*1.442)-(0.5*(1.442-0.991)*(2.37-1.972)))*1.9+(2.16*2.73)+(0.602*1.12)</f>
         <v>12.893842900000001</v>
       </c>
-      <c r="E11" s="12">
+      <c r="G11" s="12">
         <v>2.37</v>
       </c>
-      <c r="F11" s="12">
+      <c r="H11" s="12">
         <v>3.83</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>253</v>
-      </c>
       <c r="J11" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="L11" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B12" s="12">
         <v>18</v>
@@ -7601,41 +7666,47 @@
         <v>1</v>
       </c>
       <c r="D12" s="12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12">
+        <v>10.4</v>
+      </c>
+      <c r="F12" s="12">
         <f>11.3*3</f>
         <v>33.900000000000006</v>
       </c>
-      <c r="E12" s="12">
+      <c r="G12" s="12">
         <v>1.2</v>
       </c>
-      <c r="F12" s="12">
+      <c r="H12" s="12">
         <v>3.4</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>233</v>
-      </c>
       <c r="I12" s="12" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="J12" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="L12" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="M12" s="12" t="s">
+        <v>252</v>
+      </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B13" s="12">
         <v>16</v>
@@ -7644,23 +7715,27 @@
         <v>1</v>
       </c>
       <c r="D13" s="12">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="F13" s="12">
         <f>(2.8385*6.8)+(1.237*4.3)</f>
         <v>24.620899999999999</v>
       </c>
-      <c r="E13" s="12">
+      <c r="G13" s="12">
         <v>2.8380000000000001</v>
       </c>
-      <c r="F13" s="12">
+      <c r="H13" s="12">
         <v>4.2089999999999996</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -7669,10 +7744,12 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B14" s="12">
         <v>18</v>
@@ -7681,43 +7758,49 @@
         <v>1</v>
       </c>
       <c r="D14" s="12">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12">
+        <v>15.3</v>
+      </c>
+      <c r="F14" s="12">
         <f>15.3*2.37</f>
         <v>36.261000000000003</v>
       </c>
-      <c r="E14" s="12">
+      <c r="G14" s="12">
         <v>2.37</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>221</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="J14" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="M14" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="N14" s="12" t="s">
+        <v>265</v>
+      </c>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B15" s="12">
         <v>18</v>
@@ -7726,26 +7809,30 @@
         <v>1</v>
       </c>
       <c r="D15" s="12">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12">
+        <v>8.9</v>
+      </c>
+      <c r="F15" s="12">
         <f>8.9*2.37</f>
         <v>21.093000000000004</v>
       </c>
-      <c r="E15" s="12">
+      <c r="G15" s="12">
         <v>237</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="H15" s="12" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="I15" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -7753,10 +7840,12 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B16" s="12">
         <v>18</v>
@@ -7765,41 +7854,47 @@
         <v>1</v>
       </c>
       <c r="D16" s="12">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="F16" s="12">
         <f>13.7*2.37</f>
         <v>32.469000000000001</v>
       </c>
-      <c r="E16" s="12">
+      <c r="G16" s="12">
         <v>2.37</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>222</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K16" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="M16" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" s="12">
         <v>18</v>
@@ -7808,45 +7903,51 @@
         <v>1.5</v>
       </c>
       <c r="D17" s="12">
+        <v>4</v>
+      </c>
+      <c r="E17" s="12">
+        <v>16</v>
+      </c>
+      <c r="F17" s="12">
         <f>12.96*4</f>
         <v>51.84</v>
       </c>
-      <c r="E17" s="12">
+      <c r="G17" s="12">
         <v>1.08</v>
       </c>
-      <c r="F17" s="12">
+      <c r="H17" s="12">
         <v>3.2650000000000001</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>229</v>
-      </c>
       <c r="I17" s="12" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="J17" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="L17" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="N17" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" s="12">
         <v>18</v>
@@ -7855,26 +7956,30 @@
         <v>1.5</v>
       </c>
       <c r="D18" s="12">
+        <v>4</v>
+      </c>
+      <c r="E18" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="F18" s="12">
         <f>3.55*1.75</f>
         <v>6.2124999999999995</v>
       </c>
-      <c r="E18" s="12">
+      <c r="G18" s="12">
         <v>0.8</v>
       </c>
-      <c r="F18" s="12">
+      <c r="H18" s="12">
         <v>2.5859999999999999</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>231</v>
-      </c>
       <c r="I18" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+        <v>239</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>245</v>
+      </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -7882,10 +7987,12 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B19" s="12">
         <v>16</v>
@@ -7894,20 +8001,24 @@
         <v>0.5</v>
       </c>
       <c r="D19" s="12">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="F19" s="12">
         <f>3.55*2.1</f>
         <v>7.4550000000000001</v>
       </c>
-      <c r="E19" s="12">
+      <c r="G19" s="12">
         <v>0.8</v>
       </c>
-      <c r="F19" s="12">
+      <c r="H19" s="12">
         <v>2.5859999999999999</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -7917,10 +8028,12 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" s="12">
         <v>18</v>
@@ -7929,23 +8042,27 @@
         <v>1.5</v>
       </c>
       <c r="D20" s="12">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F20" s="12">
         <f>2.36*2.9</f>
         <v>6.8439999999999994</v>
       </c>
-      <c r="E20" s="12">
+      <c r="G20" s="12">
         <v>0.8</v>
       </c>
-      <c r="F20" s="12">
+      <c r="H20" s="12">
         <v>2.7090000000000001</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="I20" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>248</v>
+      </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
@@ -7954,10 +8071,12 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B21" s="12">
         <v>16</v>
@@ -7966,20 +8085,24 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="12">
+        <v>4</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="F21" s="12">
         <f>2.36*1.2</f>
         <v>2.8319999999999999</v>
       </c>
-      <c r="E21" s="12">
+      <c r="G21" s="12">
         <v>0.8</v>
       </c>
-      <c r="F21" s="12">
+      <c r="H21" s="12">
         <v>2.7090000000000001</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="I21" s="12" t="s">
+        <v>249</v>
+      </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -7989,9 +8112,11 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8023,71 +8148,71 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" s="9">
         <v>2300</v>
@@ -8111,15 +8236,15 @@
         <v>0.75</v>
       </c>
       <c r="L3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="9">
         <v>2500</v>
@@ -8143,15 +8268,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" s="9">
         <v>1.2</v>
@@ -8175,15 +8300,15 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="9">
         <v>130</v>
@@ -8207,43 +8332,43 @@
         <v>0.7</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D7" s="9">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D8" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D9" s="9">
         <v>0.17</v>
@@ -8251,41 +8376,41 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D10" s="9">
         <v>1.26</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D11" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D12" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -8312,122 +8437,122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -8465,11 +8590,11 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -8481,58 +8606,58 @@
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
         <v>137</v>
       </c>
-      <c r="C2" t="s">
-        <v>136</v>
-      </c>
       <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
       <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
         <v>137</v>
       </c>
-      <c r="G2" t="s">
-        <v>136</v>
-      </c>
       <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" t="s">
         <v>137</v>
       </c>
-      <c r="I2" t="s">
-        <v>136</v>
-      </c>
       <c r="J2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" t="s">
         <v>137</v>
       </c>
-      <c r="K2" t="s">
-        <v>136</v>
-      </c>
       <c r="L2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2">
-        <f>2.74*'Room Key'!E2</f>
+        <f>2.74*'Room Key'!G2</f>
         <v>6.6856</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D3" s="2">
         <f>Elements!Q26</f>
@@ -8553,14 +8678,14 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2">
-        <f>4.59*'Room Key'!E2</f>
+        <f>4.59*'Room Key'!G2</f>
         <v>11.1996</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D4" s="2">
         <f>Elements!Q27</f>
@@ -8581,14 +8706,14 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" s="2">
-        <f>2.5*'Room Key'!E4</f>
+        <f>2.5*'Room Key'!G4</f>
         <v>5.7249999999999996</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D5" s="2">
         <f>Elements!Q28</f>
@@ -8609,14 +8734,14 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" s="2">
-        <f>4.13*'Room Key'!E5</f>
+        <f>4.13*'Room Key'!G5</f>
         <v>9.4576999999999991</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D6" s="2">
         <f>Elements!Q29</f>
@@ -8637,14 +8762,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" s="2">
-        <f>2.36*'Room Key'!E5</f>
+        <f>2.36*'Room Key'!G5</f>
         <v>5.4043999999999999</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D7" s="2">
         <f>Elements!Q30</f>
@@ -8665,14 +8790,14 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2">
-        <f>1.75*'Room Key'!E6</f>
+        <f>1.75*'Room Key'!G6</f>
         <v>4.0075000000000003</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D8" s="2">
         <f>Elements!Q31</f>
@@ -8693,14 +8818,14 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2">
-        <f>3.18*'Room Key'!E9</f>
+        <f>3.18*'Room Key'!G9</f>
         <v>7.7591999999999999</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D9" s="2">
         <f>Elements!Q32</f>
@@ -8721,10 +8846,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" s="2">
-        <f>4.29*'Room Key'!E9</f>
+        <f>4.29*'Room Key'!G9</f>
         <v>10.467599999999999</v>
       </c>
       <c r="C10" s="2"/>
@@ -8744,14 +8869,14 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" s="2">
-        <f>4.36*'Room Key'!E9</f>
+        <f>4.36*'Room Key'!G9</f>
         <v>10.638400000000001</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D11" s="2">
         <f>Elements!Q33</f>
@@ -8772,14 +8897,14 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B12" s="2">
-        <f>1.92*'Room Key'!E10</f>
+        <f>1.92*'Room Key'!G10</f>
         <v>4.6848000000000001</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D12" s="2">
         <f>Elements!Q34</f>
@@ -8800,14 +8925,14 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B13" s="2">
-        <f>3.61*'Room Key'!E8</f>
+        <f>3.61*'Room Key'!G8</f>
         <v>10.252400000000002</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D13" s="2">
         <f>Elements!Q35</f>
@@ -8828,14 +8953,14 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" s="2">
-        <f>2.22*'Room Key'!E8</f>
+        <f>2.22*'Room Key'!G8</f>
         <v>6.3048000000000011</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D14" s="2">
         <f>Elements!Q36</f>
@@ -8856,14 +8981,14 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B15" s="2">
-        <f>4.3*'Room Key'!E3</f>
+        <f>4.3*'Room Key'!G3</f>
         <v>9.8469999999999995</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2">
         <f>Elements!Q25</f>
@@ -8884,7 +9009,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B16" s="2">
         <v>3.55</v>
@@ -8906,13 +9031,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B17" s="2">
         <v>12.96</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D17" s="2">
         <f>Elements!Q44</f>
@@ -8933,21 +9058,21 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B18" s="2">
         <f>4.87*4</f>
         <v>19.48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D18" s="2">
         <f>Elements!Q42</f>
         <v>0.96</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F18" s="2">
         <f>Elements!Q43</f>
@@ -8966,14 +9091,14 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B19" s="2">
         <f>3.8*1.75</f>
         <v>6.6499999999999995</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D19" s="2">
         <f>Elements!Q46</f>
@@ -8994,7 +9119,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B20" s="2">
         <f>0.7*4</f>
@@ -9017,7 +9142,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B21" s="2">
         <f>1.95*3.5</f>
@@ -9040,7 +9165,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B22" s="2">
         <f>2.1*3.8</f>
@@ -9063,14 +9188,14 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" s="2">
         <f>2.9*3.714</f>
         <v>10.7706</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D23" s="2">
         <f>Elements!Q47</f>
@@ -9091,7 +9216,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" s="2">
         <f>1.2*3.714</f>
@@ -9114,14 +9239,14 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2">
         <f>5.537*3</f>
         <v>16.611000000000001</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D25" s="2">
         <f>Elements!Q48</f>
@@ -9142,7 +9267,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2">
         <f>2*3</f>
@@ -9165,14 +9290,14 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2">
         <f>11.3</f>
         <v>11.3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D27" s="2">
         <f>Elements!Q37</f>
@@ -9193,14 +9318,14 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B28" s="2">
         <f>1.938*4.3</f>
         <v>8.3333999999999993</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D28" s="2">
         <f>Elements!Q49</f>
@@ -9221,14 +9346,14 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2">
         <f>1.775*4.3</f>
         <v>7.6324999999999994</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D29" s="2">
         <f>Elements!Q50</f>
@@ -9249,13 +9374,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2">
         <v>4.7699999999999996</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D30" s="2">
         <f>Elements!Q45</f>
@@ -9276,14 +9401,14 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" s="2">
         <f>3.6*2.37</f>
         <v>8.532</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D31" s="2">
         <f>Elements!Q39</f>
@@ -9304,14 +9429,14 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B32" s="2">
         <f>3.2*2.37</f>
         <v>7.5840000000000005</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D32" s="2">
         <f>Elements!Q40</f>
@@ -9332,14 +9457,14 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B33" s="2">
         <f>3.11*2.37</f>
         <v>7.3707000000000003</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D33" s="2">
         <f>Elements!Q41</f>
@@ -9360,14 +9485,14 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2">
         <f>4.28*2.37</f>
         <v>10.143600000000001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D34" s="2">
         <f>Elements!Q38</f>
@@ -9412,102 +9537,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
